--- a/public/assets/files/Data Dosen 2024.xlsx
+++ b/public/assets/files/Data Dosen 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Coding\Monitoring TA\SIMONIKA\public\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8611206D-2226-4685-81CC-72D1AE739096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2117B77-217B-434C-BEB6-4516D12F304B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="183">
   <si>
     <t>nip</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>0014079602</t>
+  </si>
+  <si>
+    <t>0003079603</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="000000000000000"/>
+    <numFmt numFmtId="164" formatCode="000000000000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -668,55 +671,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1026,14 +1023,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="14" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
@@ -1043,28 +1040,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1090,7 +1087,7 @@
       <c r="G2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2">
         <v>58302</v>
       </c>
     </row>
@@ -1116,7 +1113,7 @@
       <c r="G3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3">
         <v>55401</v>
       </c>
     </row>
@@ -1142,7 +1139,7 @@
       <c r="G4" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4">
         <v>61316</v>
       </c>
     </row>
@@ -1168,7 +1165,7 @@
       <c r="G5" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5">
         <v>55401</v>
       </c>
     </row>
@@ -1194,7 +1191,7 @@
       <c r="G6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6">
         <v>61316</v>
       </c>
     </row>
@@ -1220,7 +1217,7 @@
       <c r="G7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7">
         <v>61316</v>
       </c>
     </row>
@@ -1246,7 +1243,7 @@
       <c r="G8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8">
         <v>55401</v>
       </c>
     </row>
@@ -1272,7 +1269,7 @@
       <c r="G9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9">
         <v>58302</v>
       </c>
     </row>
@@ -1298,7 +1295,7 @@
       <c r="G10" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10">
         <v>58302</v>
       </c>
     </row>
@@ -1324,7 +1321,7 @@
       <c r="G11" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11">
         <v>55401</v>
       </c>
     </row>
@@ -1350,7 +1347,7 @@
       <c r="G12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12">
         <v>58302</v>
       </c>
     </row>
@@ -1376,7 +1373,7 @@
       <c r="G13" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13">
         <v>58302</v>
       </c>
     </row>
@@ -1402,7 +1399,7 @@
       <c r="G14" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14">
         <v>58302</v>
       </c>
     </row>
@@ -1428,7 +1425,7 @@
       <c r="G15" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15">
         <v>61316</v>
       </c>
     </row>
@@ -1454,7 +1451,7 @@
       <c r="G16" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16">
         <v>58302</v>
       </c>
     </row>
@@ -1480,7 +1477,7 @@
       <c r="G17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17">
         <v>58302</v>
       </c>
     </row>
@@ -1506,7 +1503,7 @@
       <c r="G18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18">
         <v>55401</v>
       </c>
     </row>
@@ -1532,7 +1529,7 @@
       <c r="G19" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19">
         <v>55401</v>
       </c>
     </row>
@@ -1558,7 +1555,7 @@
       <c r="G20" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20">
         <v>55401</v>
       </c>
     </row>
@@ -1584,7 +1581,7 @@
       <c r="G21" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21">
         <v>58302</v>
       </c>
     </row>
@@ -1610,7 +1607,7 @@
       <c r="G22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22">
         <v>61316</v>
       </c>
     </row>
@@ -1618,7 +1615,9 @@
       <c r="A23" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>182</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1634,7 +1633,7 @@
       <c r="G23" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23">
         <v>61316</v>
       </c>
     </row>
@@ -1648,7 +1647,7 @@
       <c r="C24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -1660,7 +1659,7 @@
       <c r="G24" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24">
         <v>55401</v>
       </c>
     </row>
@@ -1674,7 +1673,7 @@
       <c r="C25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -1686,7 +1685,7 @@
       <c r="G25" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25">
         <v>55401</v>
       </c>
     </row>
@@ -1700,7 +1699,7 @@
       <c r="C26" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E26" s="11" t="s">
@@ -1712,7 +1711,7 @@
       <c r="G26" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26">
         <v>58302</v>
       </c>
     </row>
@@ -1720,13 +1719,13 @@
       <c r="A27" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>179</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E27" s="11" t="s">
@@ -1738,7 +1737,7 @@
       <c r="G27" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27">
         <v>55401</v>
       </c>
     </row>
@@ -1752,7 +1751,7 @@
       <c r="C28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -1764,7 +1763,7 @@
       <c r="G28" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28">
         <v>55401</v>
       </c>
     </row>
@@ -1778,7 +1777,7 @@
       <c r="C29" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="9" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -1790,7 +1789,7 @@
       <c r="G29" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29">
         <v>58302</v>
       </c>
     </row>
